--- a/Statystyki_2018/Template/oopr.xlsx
+++ b/Statystyki_2018/Template/oopr.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25019D5-822E-44FA-82D0-903EAAA7AF13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DE4F7-1383-425C-99F9-D32BC6CEE8C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KOLUMNY DO SKASOWANIA" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm.Print_Area" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A$1:$DJ$6</definedName>
-    <definedName name="__xlnm.Print_Titles" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A$1:$C$65490</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A$1:$DJ$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A:$C</definedName>
+    <definedName name="__xlnm.Print_Area" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A$1:$DH$6</definedName>
+    <definedName name="__xlnm.Print_Titles" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A$1:$D$65490</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A$1:$DH$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'KOLUMNY DO SKASOWANIA'!$A:$D</definedName>
   </definedNames>
-  <calcPr calcId="179021" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>Lp</t>
   </si>
   <si>
     <t>Nazwisko 
 sędziego</t>
-  </si>
-  <si>
-    <t>Imię</t>
   </si>
   <si>
     <t xml:space="preserve">WPŁYW </t>
@@ -217,14 +222,6 @@
   <si>
     <t xml:space="preserve">Ogółem
 </t>
-  </si>
-  <si>
-    <t>Ogółem
-(Dz. 1.1.1. k.02,w.01 + Dz. 1.1.2 k.02, w.01)</t>
-  </si>
-  <si>
-    <t>Ogółem
-(Dz. 1.1.1. k.03,w.01 + Dz. 1.1.2 k.04, w.01),</t>
   </si>
   <si>
     <r>
@@ -271,10 +268,6 @@
 (Dz. 1.1.1. k.17)</t>
   </si>
   <si>
-    <t>Ogółem
-(Dz. 1.1.1. k.18,w.01 + Dz. 1.1.2 k.06,w.01)</t>
-  </si>
-  <si>
     <t>w tym nieusprawiedliwione</t>
   </si>
   <si>
@@ -339,6 +332,12 @@
   </si>
   <si>
     <t>w terminie ustawowym 14 dni</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>zaległość z roku 2018</t>
   </si>
 </sst>
 </file>
@@ -601,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -669,19 +668,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -887,12 +873,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -901,63 +909,237 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,185 +1149,20 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,359 +1602,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DM7"/>
+  <dimension ref="A1:DK7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="CX6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="DN7" sqref="DN7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="27.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="5.44140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="5.5703125" style="1" customWidth="1"/>
-    <col min="17" max="20" width="5.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="5.5546875" style="1" customWidth="1"/>
+    <col min="17" max="20" width="5.44140625" style="1" customWidth="1"/>
     <col min="21" max="24" width="6" style="1" customWidth="1"/>
-    <col min="25" max="28" width="5.85546875" style="1" customWidth="1"/>
-    <col min="29" max="30" width="7.28515625" style="1" customWidth="1"/>
-    <col min="31" max="44" width="4.85546875" style="1" customWidth="1"/>
-    <col min="45" max="46" width="7.85546875" style="1" customWidth="1"/>
-    <col min="47" max="52" width="6.140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="6.42578125" style="1" customWidth="1"/>
-    <col min="54" max="59" width="7.140625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="17" style="1" customWidth="1"/>
-    <col min="61" max="61" width="17.7109375" style="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="1" customWidth="1"/>
-    <col min="63" max="65" width="6.28515625" style="1" customWidth="1"/>
-    <col min="66" max="66" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="7.7109375" style="1" customWidth="1"/>
-    <col min="70" max="71" width="8" style="1" customWidth="1"/>
-    <col min="72" max="77" width="6.140625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="6.5703125" style="1" customWidth="1"/>
-    <col min="79" max="79" width="7.28515625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="9" style="1" customWidth="1"/>
-    <col min="81" max="84" width="8.42578125" style="1" customWidth="1"/>
-    <col min="85" max="87" width="7.42578125" style="1" customWidth="1"/>
-    <col min="88" max="88" width="9.140625" style="1" customWidth="1"/>
-    <col min="89" max="90" width="11.28515625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.85546875" style="1" customWidth="1"/>
-    <col min="92" max="99" width="5.85546875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="7" style="1" customWidth="1"/>
-    <col min="101" max="101" width="12" style="1" customWidth="1"/>
-    <col min="102" max="102" width="7.5703125" style="1" customWidth="1"/>
-    <col min="103" max="103" width="15.7109375" style="1" customWidth="1"/>
-    <col min="104" max="104" width="5" style="1" customWidth="1"/>
-    <col min="105" max="105" width="5.7109375" style="1" customWidth="1"/>
-    <col min="106" max="108" width="6.140625" style="1" customWidth="1"/>
-    <col min="109" max="109" width="5.28515625" style="1" customWidth="1"/>
-    <col min="110" max="110" width="5.42578125" style="1" customWidth="1"/>
-    <col min="111" max="113" width="6.42578125" style="1" customWidth="1"/>
-    <col min="114" max="114" width="87" style="1" customWidth="1"/>
-    <col min="115" max="116" width="27.140625" style="1" customWidth="1"/>
-    <col min="117" max="117" width="9.140625" style="1" customWidth="1"/>
-    <col min="118" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="28" width="5.88671875" style="1" customWidth="1"/>
+    <col min="29" max="30" width="7.33203125" style="1" customWidth="1"/>
+    <col min="31" max="44" width="4.88671875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.88671875" style="1" customWidth="1"/>
+    <col min="46" max="51" width="6.109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="6.44140625" style="1" customWidth="1"/>
+    <col min="53" max="58" width="7.109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="17" style="1" customWidth="1"/>
+    <col min="60" max="60" width="17.6640625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="10.44140625" style="1" customWidth="1"/>
+    <col min="62" max="64" width="6.33203125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="7.6640625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="8" style="1" customWidth="1"/>
+    <col min="70" max="75" width="6.109375" style="1" customWidth="1"/>
+    <col min="76" max="76" width="6.5546875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="7.33203125" style="1" customWidth="1"/>
+    <col min="78" max="78" width="9" style="1" customWidth="1"/>
+    <col min="79" max="82" width="8.44140625" style="1" customWidth="1"/>
+    <col min="83" max="85" width="7.44140625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="9.109375" style="1" customWidth="1"/>
+    <col min="87" max="88" width="11.33203125" style="1" customWidth="1"/>
+    <col min="89" max="89" width="6.88671875" style="1" customWidth="1"/>
+    <col min="90" max="97" width="5.88671875" style="1" customWidth="1"/>
+    <col min="98" max="98" width="7" style="1" customWidth="1"/>
+    <col min="99" max="99" width="12" style="1" customWidth="1"/>
+    <col min="100" max="100" width="7.5546875" style="1" customWidth="1"/>
+    <col min="101" max="101" width="15.6640625" style="1" customWidth="1"/>
+    <col min="102" max="102" width="5" style="1" customWidth="1"/>
+    <col min="103" max="103" width="5.6640625" style="1" customWidth="1"/>
+    <col min="104" max="106" width="6.109375" style="1" customWidth="1"/>
+    <col min="107" max="107" width="5.33203125" style="1" customWidth="1"/>
+    <col min="108" max="108" width="5.44140625" style="1" customWidth="1"/>
+    <col min="109" max="111" width="6.44140625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="87" style="1" customWidth="1"/>
+    <col min="113" max="114" width="27.109375" style="1" customWidth="1"/>
+    <col min="115" max="115" width="9.109375" style="1" customWidth="1"/>
+    <col min="116" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:115" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40" t="s">
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="80" t="s">
+      <c r="BH1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="BI1" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ1" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="81" t="s">
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="40" t="s">
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40" t="s">
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
+      <c r="CE1" s="53"/>
+      <c r="CF1" s="53"/>
+      <c r="CG1" s="53"/>
+      <c r="CH1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="12"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="CK1" s="10"/>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="9" t="s">
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="10"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="49" t="s">
+      <c r="DC1" s="54"/>
+      <c r="DD1" s="54"/>
+      <c r="DE1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="DE1" s="49"/>
-      <c r="DF1" s="49"/>
-      <c r="DG1" s="40" t="s">
+      <c r="DF1" s="53"/>
+      <c r="DG1" s="53"/>
+      <c r="DH1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="DH1" s="40"/>
-      <c r="DI1" s="40"/>
-      <c r="DJ1" s="47" t="s">
+      <c r="DI1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="DK1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="DL1" s="48"/>
-      <c r="DM1" s="2"/>
+      <c r="DJ1" s="52"/>
+      <c r="DK1" s="2"/>
     </row>
-    <row r="2" spans="1:117" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="40"/>
-      <c r="CA2" s="40"/>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="13"/>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="13"/>
-      <c r="CS2" s="13"/>
-      <c r="CT2" s="13"/>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="13"/>
-      <c r="CW2" s="13"/>
-      <c r="CX2" s="13"/>
-      <c r="CY2" s="14"/>
-      <c r="CZ2" s="17"/>
-      <c r="DA2" s="18"/>
-      <c r="DB2" s="18"/>
-      <c r="DC2" s="19"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="49"/>
-      <c r="DF2" s="49"/>
-      <c r="DG2" s="40"/>
-      <c r="DH2" s="40"/>
-      <c r="DI2" s="40"/>
-      <c r="DJ2" s="47"/>
-      <c r="DK2" s="48"/>
-      <c r="DL2" s="48"/>
-      <c r="DM2" s="2"/>
+    <row r="2" spans="1:115" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="17"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="53"/>
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="53"/>
+      <c r="CF2" s="53"/>
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="17"/>
+      <c r="CY2" s="18"/>
+      <c r="CZ2" s="18"/>
+      <c r="DA2" s="19"/>
+      <c r="DB2" s="54"/>
+      <c r="DC2" s="54"/>
+      <c r="DD2" s="54"/>
+      <c r="DE2" s="53"/>
+      <c r="DF2" s="53"/>
+      <c r="DG2" s="53"/>
+      <c r="DH2" s="51"/>
+      <c r="DI2" s="52"/>
+      <c r="DJ2" s="52"/>
+      <c r="DK2" s="2"/>
     </row>
-    <row r="3" spans="1:117" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+    <row r="3" spans="1:115" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -1945,1085 +1959,1189 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="73"/>
+      <c r="O3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="30" t="s">
+      <c r="BB3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE3" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="BL3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
+      <c r="BM3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="BS3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30" t="s">
+      <c r="BV3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="BW3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30" t="s">
+      <c r="BX3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="30" t="s">
+      <c r="BY3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="CB3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="CC3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="CF3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="CH3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CI3" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ3" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="CK3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="CL3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
+      <c r="CS3" s="20"/>
+      <c r="CT3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU3" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="CV3" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="CW3" s="83"/>
+      <c r="CX3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CY3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="DB3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC3" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="DD3" s="44"/>
+      <c r="DE3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="DG3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH3" s="51"/>
+      <c r="DI3" s="52"/>
+      <c r="DJ3" s="52"/>
+      <c r="DK3" s="2"/>
+    </row>
+    <row r="4" spans="1:115" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30" t="s">
+      <c r="H4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30" t="s">
+      <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30" t="s">
+      <c r="J4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30" t="s">
+      <c r="K4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30" t="s">
+      <c r="L4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT3" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW3" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY3" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ3" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA3" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="57" t="s">
+      <c r="M4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG4" s="33"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28"/>
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="29"/>
+      <c r="CA4" s="29"/>
+      <c r="CB4" s="29"/>
+      <c r="CC4" s="29"/>
+      <c r="CD4" s="29"/>
+      <c r="CE4" s="29"/>
+      <c r="CF4" s="29"/>
+      <c r="CG4" s="29"/>
+      <c r="CH4" s="30"/>
+      <c r="CI4" s="86"/>
+      <c r="CJ4" s="86"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="CM4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="BF3" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80"/>
-      <c r="BJ3" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="BK3" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="BN3" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO3" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="BP3" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="BQ3" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="BR3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="BS3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT3" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="BU3" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="BW3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="BX3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="BY3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="BZ3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="CB3" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC3" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="CD3" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="CE3" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="CF3" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG3" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH3" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI3" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="CJ3" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="CK3" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="CL3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM3" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN3" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="CO3" s="68"/>
-      <c r="CP3" s="68"/>
-      <c r="CQ3" s="68"/>
-      <c r="CR3" s="68"/>
-      <c r="CS3" s="68"/>
-      <c r="CT3" s="68"/>
-      <c r="CU3" s="68"/>
-      <c r="CV3" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="CW3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="CX3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="CY3" s="26"/>
-      <c r="CZ3" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA3" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="DD3" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="DE3" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="DF3" s="76"/>
-      <c r="DG3" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="DH3" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI3" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="DJ3" s="47"/>
-      <c r="DK3" s="48"/>
-      <c r="DL3" s="48"/>
-      <c r="DM3" s="2"/>
+      <c r="CN4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="CP4" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="CR4" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="CS4" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="76"/>
+      <c r="CV4" s="84"/>
+      <c r="CW4" s="85"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="CZ4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="DA4" s="78"/>
+      <c r="DB4" s="43"/>
+      <c r="DC4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="DD4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="52"/>
+      <c r="DK4" s="2"/>
     </row>
-    <row r="4" spans="1:117" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="43" t="s">
+    <row r="5" spans="1:115" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="57"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="25"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="31"/>
+      <c r="BO5" s="47"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="46"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="35"/>
+      <c r="BV5" s="35"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="64"/>
+      <c r="BY5" s="35"/>
+      <c r="BZ5" s="29"/>
+      <c r="CA5" s="29"/>
+      <c r="CB5" s="29"/>
+      <c r="CC5" s="29"/>
+      <c r="CD5" s="29"/>
+      <c r="CE5" s="29"/>
+      <c r="CF5" s="29"/>
+      <c r="CG5" s="29"/>
+      <c r="CH5" s="30"/>
+      <c r="CI5" s="86"/>
+      <c r="CJ5" s="86"/>
+      <c r="CK5" s="38"/>
+      <c r="CL5" s="80"/>
+      <c r="CM5" s="80"/>
+      <c r="CN5" s="80"/>
+      <c r="CO5" s="80"/>
+      <c r="CP5" s="80"/>
+      <c r="CQ5" s="80"/>
+      <c r="CR5" s="81"/>
+      <c r="CS5" s="81"/>
+      <c r="CT5" s="40"/>
+      <c r="CU5" s="76"/>
+      <c r="CV5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CX5" s="41"/>
+      <c r="CY5" s="26"/>
+      <c r="CZ5" s="26"/>
+      <c r="DA5" s="79"/>
+      <c r="DB5" s="43"/>
+      <c r="DC5" s="26"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="36"/>
+      <c r="DF5" s="36"/>
+      <c r="DG5" s="36"/>
+      <c r="DH5" s="51"/>
+      <c r="DI5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="43" t="s">
+      <c r="DJ5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD4" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG4" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="80"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="55"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="79"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="63"/>
-      <c r="BU4" s="30"/>
-      <c r="BV4" s="30"/>
-      <c r="BW4" s="30"/>
-      <c r="BX4" s="30"/>
-      <c r="BY4" s="30"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="30"/>
-      <c r="CB4" s="74"/>
-      <c r="CC4" s="74"/>
-      <c r="CD4" s="74"/>
-      <c r="CE4" s="74"/>
-      <c r="CF4" s="74"/>
-      <c r="CG4" s="74"/>
-      <c r="CH4" s="74"/>
-      <c r="CI4" s="74"/>
-      <c r="CJ4" s="78"/>
-      <c r="CK4" s="29"/>
-      <c r="CL4" s="29"/>
-      <c r="CM4" s="67"/>
-      <c r="CN4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="CO4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="CQ4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="CR4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="CS4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="CT4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="CU4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="CV4" s="70"/>
-      <c r="CW4" s="16"/>
-      <c r="CX4" s="27"/>
-      <c r="CY4" s="28"/>
-      <c r="CZ4" s="71"/>
-      <c r="DA4" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="DB4" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="DC4" s="21"/>
-      <c r="DD4" s="75"/>
-      <c r="DE4" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="DF4" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="DG4" s="65"/>
-      <c r="DH4" s="65"/>
-      <c r="DI4" s="65"/>
-      <c r="DJ4" s="47"/>
-      <c r="DK4" s="48"/>
-      <c r="DL4" s="48"/>
-      <c r="DM4" s="2"/>
+      <c r="DK5" s="2"/>
     </row>
-    <row r="5" spans="1:117" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="82"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="55"/>
-      <c r="BL5" s="55"/>
-      <c r="BM5" s="55"/>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="79"/>
-      <c r="BP5" s="64"/>
-      <c r="BQ5" s="64"/>
-      <c r="BR5" s="42"/>
-      <c r="BS5" s="42"/>
-      <c r="BT5" s="63"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="31"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="74"/>
-      <c r="CC5" s="74"/>
-      <c r="CD5" s="74"/>
-      <c r="CE5" s="74"/>
-      <c r="CF5" s="74"/>
-      <c r="CG5" s="74"/>
-      <c r="CH5" s="74"/>
-      <c r="CI5" s="74"/>
-      <c r="CJ5" s="78"/>
-      <c r="CK5" s="29"/>
-      <c r="CL5" s="29"/>
-      <c r="CM5" s="67"/>
-      <c r="CN5" s="23"/>
-      <c r="CO5" s="23"/>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="23"/>
-      <c r="CR5" s="23"/>
-      <c r="CS5" s="23"/>
-      <c r="CT5" s="24"/>
-      <c r="CU5" s="24"/>
-      <c r="CV5" s="70"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="CY5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="CZ5" s="71"/>
-      <c r="DA5" s="73"/>
-      <c r="DB5" s="73"/>
-      <c r="DC5" s="22"/>
-      <c r="DD5" s="75"/>
-      <c r="DE5" s="73"/>
-      <c r="DF5" s="77"/>
-      <c r="DG5" s="65"/>
-      <c r="DH5" s="65"/>
-      <c r="DI5" s="65"/>
-      <c r="DJ5" s="47"/>
-      <c r="DK5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="DL5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="DM5" s="2"/>
-    </row>
-    <row r="6" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="5">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>D6+1</f>
         <v>2</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:BO6" si="0">E6+1</f>
+      <c r="F6" s="5">
+        <f>E6+1</f>
         <v>3</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:BN6" si="0">F6+1</f>
         <v>4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AO6" s="6">
+      <c r="AO6" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AP6" s="6">
+      <c r="AP6" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AQ6" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AR6" s="6">
+      <c r="AR6" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AS6" s="6">
+      <c r="AS6" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AU6" s="6">
+      <c r="AU6" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AV6" s="6">
+      <c r="AV6" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AW6" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AX6" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AY6" s="6">
+      <c r="AY6" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AZ6" s="6">
+      <c r="AZ6" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BA6" s="6">
+      <c r="BA6" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BB6" s="6">
+      <c r="BB6" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BC6" s="6">
+      <c r="BC6" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BD6" s="6">
+      <c r="BD6" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BE6" s="6">
+      <c r="BE6" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BF6" s="6">
+      <c r="BF6" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BG6" s="6">
+      <c r="BG6" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BH6" s="6">
+      <c r="BH6" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BI6" s="6">
+      <c r="BI6" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BJ6" s="6">
+      <c r="BJ6" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BK6" s="6">
+      <c r="BK6" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BL6" s="6">
+      <c r="BL6" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BM6" s="6">
+      <c r="BM6" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BN6" s="6">
+      <c r="BN6" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BO6" s="6">
-        <f t="shared" si="0"/>
+      <c r="BO6" s="5">
+        <f t="shared" ref="BO6:DJ6" si="1">BN6+1</f>
         <v>64</v>
       </c>
-      <c r="BP6" s="6">
-        <f t="shared" ref="BP6:DL6" si="1">BO6+1</f>
+      <c r="BP6" s="5">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="BQ6" s="6">
+      <c r="BQ6" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="BR6" s="6">
+      <c r="BR6" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="BS6" s="6">
+      <c r="BS6" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BT6" s="6">
+      <c r="BT6" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BU6" s="6">
+      <c r="BU6" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BV6" s="6">
+      <c r="BV6" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BW6" s="6">
+      <c r="BW6" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BX6" s="6">
+      <c r="BX6" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BY6" s="6">
+      <c r="BY6" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="BZ6" s="6">
+      <c r="BZ6" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="CA6" s="6">
+      <c r="CA6" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="CB6" s="6">
+      <c r="CB6" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="CC6" s="6">
+      <c r="CC6" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CD6" s="6">
+      <c r="CD6" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CE6" s="6">
+      <c r="CE6" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CF6" s="6">
+      <c r="CF6" s="5">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CG6" s="6">
+      <c r="CG6" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CH6" s="6">
+      <c r="CH6" s="5">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="CI6" s="6">
+      <c r="CI6" s="5">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="CJ6" s="6">
+      <c r="CJ6" s="5">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="CK6" s="6">
+      <c r="CK6" s="5">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="CL6" s="6">
+      <c r="CL6" s="5">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CM6" s="6">
+      <c r="CM6" s="5">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="CN6" s="6">
+      <c r="CN6" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CO6" s="6">
+      <c r="CO6" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CP6" s="6">
+      <c r="CP6" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CQ6" s="6">
+      <c r="CQ6" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CR6" s="6">
+      <c r="CR6" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CS6" s="6">
+      <c r="CS6" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CT6" s="6">
+      <c r="CT6" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CU6" s="6">
+      <c r="CU6" s="5">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CV6" s="6">
+      <c r="CV6" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CW6" s="6">
+      <c r="CW6" s="5">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CX6" s="6">
+      <c r="CX6" s="5">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CY6" s="6">
+      <c r="CY6" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="CZ6" s="6">
+      <c r="CZ6" s="5">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="DA6" s="6">
+      <c r="DA6" s="5">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="DB6" s="6">
+      <c r="DB6" s="5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="DC6" s="6">
+      <c r="DC6" s="5">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DD6" s="6">
+      <c r="DD6" s="5">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="DE6" s="6">
+      <c r="DE6" s="5">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="DF6" s="6">
+      <c r="DF6" s="5">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="DG6" s="6">
+      <c r="DG6" s="5">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="DH6" s="6">
+      <c r="DH6" s="5">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="DI6" s="6">
+      <c r="DI6" s="5">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="DJ6" s="6">
+      <c r="DJ6" s="5">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="DK6" s="6">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="DL6" s="6">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="DM6" s="2"/>
+      <c r="DK6" s="2"/>
     </row>
-    <row r="7" spans="1:117" ht="18" x14ac:dyDescent="0.25">
-      <c r="CV7" s="3"/>
+    <row r="7" spans="1:115" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="4"/>
+      <c r="CV7" s="4"/>
       <c r="CW7" s="4"/>
-      <c r="CX7" s="4"/>
-      <c r="CY7" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="150">
+  <mergeCells count="148">
+    <mergeCell ref="AS1:AZ2"/>
+    <mergeCell ref="BQ1:BX2"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="CH1:CW2"/>
+    <mergeCell ref="CU3:CU5"/>
+    <mergeCell ref="CX1:DA2"/>
+    <mergeCell ref="DA3:DA5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CR4:CR5"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CV3:CW4"/>
+    <mergeCell ref="CL4:CL5"/>
+    <mergeCell ref="CM4:CM5"/>
+    <mergeCell ref="CN4:CN5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CI3:CI5"/>
+    <mergeCell ref="CJ3:CJ5"/>
+    <mergeCell ref="BX3:BX5"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AC1:AR2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="M1:AB2"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="DH1:DH5"/>
+    <mergeCell ref="DI1:DJ4"/>
+    <mergeCell ref="BY1:CG2"/>
+    <mergeCell ref="DB1:DD2"/>
+    <mergeCell ref="DE1:DG2"/>
+    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="BA3:BA5"/>
+    <mergeCell ref="BI3:BI5"/>
+    <mergeCell ref="BJ3:BJ5"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BD5"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BW3:BW5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="BR3:BR5"/>
+    <mergeCell ref="BS3:BS5"/>
+    <mergeCell ref="BK3:BK5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="BO3:BO5"/>
+    <mergeCell ref="BP3:BP5"/>
+    <mergeCell ref="BQ3:BQ5"/>
+    <mergeCell ref="AT3:AT5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="DF3:DF5"/>
+    <mergeCell ref="DG3:DG5"/>
+    <mergeCell ref="CK3:CK5"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:CT5"/>
+    <mergeCell ref="CX3:CX5"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="CZ4:CZ5"/>
+    <mergeCell ref="BY3:BY5"/>
+    <mergeCell ref="BZ3:BZ5"/>
+    <mergeCell ref="CA3:CA5"/>
+    <mergeCell ref="CB3:CB5"/>
+    <mergeCell ref="DB3:DB5"/>
+    <mergeCell ref="DC3:DD3"/>
+    <mergeCell ref="DE3:DE5"/>
+    <mergeCell ref="CC3:CC5"/>
+    <mergeCell ref="CD3:CD5"/>
+    <mergeCell ref="DC4:DC5"/>
+    <mergeCell ref="DD4:DD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="CY4:CY5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BL3:BL5"/>
+    <mergeCell ref="CE3:CE5"/>
+    <mergeCell ref="CF3:CF5"/>
+    <mergeCell ref="CG3:CG5"/>
+    <mergeCell ref="CH3:CH5"/>
+    <mergeCell ref="BN3:BN5"/>
+    <mergeCell ref="AV3:AV5"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG1:BG5"/>
+    <mergeCell ref="BH1:BH5"/>
+    <mergeCell ref="BI1:BM2"/>
+    <mergeCell ref="BN1:BP2"/>
+    <mergeCell ref="BT3:BT5"/>
+    <mergeCell ref="BU3:BU5"/>
+    <mergeCell ref="BV3:BV5"/>
+    <mergeCell ref="AY3:AY5"/>
+    <mergeCell ref="BM3:BM5"/>
+    <mergeCell ref="AZ3:AZ5"/>
     <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="D1:L3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E1:L3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -3039,136 +3157,10 @@
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="DA4:DA5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BM3:BM5"/>
-    <mergeCell ref="CG3:CG5"/>
-    <mergeCell ref="CH3:CH5"/>
-    <mergeCell ref="CI3:CI5"/>
-    <mergeCell ref="CJ3:CJ5"/>
-    <mergeCell ref="BO3:BO5"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="AY3:AY5"/>
-    <mergeCell ref="BH1:BH5"/>
-    <mergeCell ref="BI1:BI5"/>
-    <mergeCell ref="BJ1:BN2"/>
-    <mergeCell ref="BO1:BQ2"/>
-    <mergeCell ref="BV3:BV5"/>
-    <mergeCell ref="BW3:BW5"/>
-    <mergeCell ref="BX3:BX5"/>
-    <mergeCell ref="AZ3:AZ5"/>
-    <mergeCell ref="BN3:BN5"/>
-    <mergeCell ref="DH3:DH5"/>
-    <mergeCell ref="DI3:DI5"/>
-    <mergeCell ref="CM3:CM5"/>
-    <mergeCell ref="CN3:CU3"/>
-    <mergeCell ref="CV3:CV5"/>
-    <mergeCell ref="CZ3:CZ5"/>
-    <mergeCell ref="DA3:DB3"/>
-    <mergeCell ref="DB4:DB5"/>
-    <mergeCell ref="CA3:CA5"/>
-    <mergeCell ref="CB3:CB5"/>
-    <mergeCell ref="CC3:CC5"/>
-    <mergeCell ref="CD3:CD5"/>
-    <mergeCell ref="DD3:DD5"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DG5"/>
-    <mergeCell ref="CE3:CE5"/>
-    <mergeCell ref="CF3:CF5"/>
-    <mergeCell ref="DE4:DE5"/>
-    <mergeCell ref="DF4:DF5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="BT3:BT5"/>
-    <mergeCell ref="BU3:BU5"/>
-    <mergeCell ref="BL3:BL5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="BP3:BP5"/>
-    <mergeCell ref="BQ3:BQ5"/>
-    <mergeCell ref="BR3:BR5"/>
-    <mergeCell ref="BS3:BS5"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="BB1:BG1"/>
-    <mergeCell ref="DJ1:DJ5"/>
-    <mergeCell ref="DK1:DL4"/>
-    <mergeCell ref="CA1:CI2"/>
-    <mergeCell ref="DD1:DF2"/>
-    <mergeCell ref="DG1:DI2"/>
-    <mergeCell ref="AV3:AV5"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="BR1:BZ2"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BJ3:BJ5"/>
-    <mergeCell ref="BK3:BK5"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BE5"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BY3:BY5"/>
-    <mergeCell ref="BZ3:BZ5"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="AC1:AR2"/>
-    <mergeCell ref="AS1:BA2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="M1:AB2"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="AT3:AT5"/>
-    <mergeCell ref="CJ1:CY2"/>
-    <mergeCell ref="CW3:CW5"/>
-    <mergeCell ref="CZ1:DC2"/>
-    <mergeCell ref="DC3:DC5"/>
-    <mergeCell ref="CR4:CR5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="CX3:CY4"/>
-    <mergeCell ref="CN4:CN5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CK3:CK5"/>
-    <mergeCell ref="CL3:CL5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/Statystyki_2018/Template/oopr.xlsx
+++ b/Statystyki_2018/Template/oopr.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2347BBF7-7782-4250-87E0-E68A8AFCF8F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6288C9-21B5-4488-B7CA-98B11EF5CE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15468" yWindow="1380" windowWidth="15576" windowHeight="12504" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm.Print_Area" localSheetId="0">'1'!#REF!</definedName>
-    <definedName name="__xlnm.Print_Titles" localSheetId="0">'1'!$A$1:$D$65483</definedName>
+    <definedName name="__xlnm.Print_Titles" localSheetId="0">'1'!$A$1:$E$65483</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$A:$D</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>skargi na przewlekłość</t>
   </si>
@@ -127,10 +129,6 @@
   </si>
   <si>
     <t>lp</t>
-  </si>
-  <si>
-    <t>imię i nazwisko
-sędziego</t>
   </si>
   <si>
     <t>WPŁYW</t>
@@ -395,6 +393,14 @@
   </si>
   <si>
     <t>zaległość z poprzedniego roku</t>
+  </si>
+  <si>
+    <t>imię
+sędziego</t>
+  </si>
+  <si>
+    <t>nazwisko
+sędziego</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -831,6 +837,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -855,7 +898,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -873,7 +916,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -882,14 +959,98 @@
     <xf numFmtId="0" fontId="32" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -897,128 +1058,19 @@
     <xf numFmtId="0" fontId="31" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1027,11 +1079,17 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1490,999 +1548,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:DN7"/>
+  <dimension ref="A2:DO7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7:E7"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="27.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="5.44140625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="7.33203125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="5.5546875" style="1" customWidth="1"/>
-    <col min="19" max="22" width="5.44140625" style="1" customWidth="1"/>
-    <col min="23" max="26" width="6" style="1" customWidth="1"/>
-    <col min="27" max="30" width="5.88671875" style="1" customWidth="1"/>
-    <col min="31" max="32" width="7.33203125" style="1" customWidth="1"/>
-    <col min="33" max="46" width="4.88671875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="7.88671875" style="1" customWidth="1"/>
-    <col min="48" max="53" width="6.109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="6.44140625" style="1" customWidth="1"/>
-    <col min="55" max="60" width="7.109375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="17" style="1" customWidth="1"/>
-    <col min="62" max="62" width="11.33203125" style="1" customWidth="1"/>
-    <col min="63" max="63" width="10.44140625" style="1" customWidth="1"/>
-    <col min="64" max="66" width="6.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="15.21875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="15.6640625" style="1" customWidth="1"/>
-    <col min="69" max="70" width="7.6640625" style="1" customWidth="1"/>
-    <col min="71" max="71" width="8" style="1" customWidth="1"/>
-    <col min="72" max="77" width="6.109375" style="1" customWidth="1"/>
-    <col min="78" max="78" width="6.5546875" style="1" customWidth="1"/>
-    <col min="79" max="79" width="7.33203125" style="1" customWidth="1"/>
-    <col min="80" max="80" width="9" style="1" customWidth="1"/>
-    <col min="81" max="84" width="8.44140625" style="1" customWidth="1"/>
-    <col min="85" max="87" width="7.44140625" style="1" customWidth="1"/>
-    <col min="88" max="88" width="9.109375" style="1" customWidth="1"/>
-    <col min="89" max="90" width="11.33203125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.88671875" style="1" customWidth="1"/>
-    <col min="92" max="99" width="5.88671875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="7" style="1" customWidth="1"/>
-    <col min="101" max="101" width="12" style="1" customWidth="1"/>
-    <col min="102" max="102" width="7.5546875" style="1" customWidth="1"/>
-    <col min="103" max="103" width="15.6640625" style="1" customWidth="1"/>
-    <col min="104" max="104" width="5" style="1" customWidth="1"/>
-    <col min="105" max="105" width="5.6640625" style="1" customWidth="1"/>
-    <col min="106" max="106" width="16.77734375" style="1" customWidth="1"/>
-    <col min="107" max="108" width="6.109375" style="1" customWidth="1"/>
-    <col min="109" max="109" width="5.33203125" style="1" customWidth="1"/>
-    <col min="110" max="110" width="5.44140625" style="1" customWidth="1"/>
-    <col min="111" max="111" width="10.88671875" style="1" customWidth="1"/>
-    <col min="112" max="112" width="10.21875" style="1" customWidth="1"/>
-    <col min="113" max="113" width="10.44140625" style="1" customWidth="1"/>
-    <col min="114" max="114" width="87" style="1" customWidth="1"/>
-    <col min="115" max="116" width="27.109375" style="1" customWidth="1"/>
-    <col min="117" max="117" width="9.109375" style="1" customWidth="1"/>
-    <col min="118" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="38.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.44140625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="7.33203125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="1" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="1" customWidth="1"/>
+    <col min="24" max="27" width="6" style="1" customWidth="1"/>
+    <col min="28" max="31" width="5.88671875" style="1" customWidth="1"/>
+    <col min="32" max="33" width="7.33203125" style="1" customWidth="1"/>
+    <col min="34" max="47" width="4.88671875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="7.88671875" style="1" customWidth="1"/>
+    <col min="49" max="54" width="6.109375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="6.44140625" style="1" customWidth="1"/>
+    <col min="56" max="61" width="7.109375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="17" style="1" customWidth="1"/>
+    <col min="63" max="63" width="11.33203125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="10.44140625" style="1" customWidth="1"/>
+    <col min="65" max="67" width="6.33203125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="15.21875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.6640625" style="1" customWidth="1"/>
+    <col min="70" max="71" width="7.6640625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="8" style="1" customWidth="1"/>
+    <col min="73" max="78" width="6.109375" style="1" customWidth="1"/>
+    <col min="79" max="79" width="6.5546875" style="1" customWidth="1"/>
+    <col min="80" max="80" width="7.33203125" style="1" customWidth="1"/>
+    <col min="81" max="81" width="9" style="1" customWidth="1"/>
+    <col min="82" max="85" width="8.44140625" style="1" customWidth="1"/>
+    <col min="86" max="88" width="7.44140625" style="1" customWidth="1"/>
+    <col min="89" max="89" width="9.109375" style="1" customWidth="1"/>
+    <col min="90" max="91" width="11.33203125" style="1" customWidth="1"/>
+    <col min="92" max="92" width="6.88671875" style="1" customWidth="1"/>
+    <col min="93" max="100" width="5.88671875" style="1" customWidth="1"/>
+    <col min="101" max="101" width="7" style="1" customWidth="1"/>
+    <col min="102" max="102" width="12" style="1" customWidth="1"/>
+    <col min="103" max="103" width="7.5546875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="15.6640625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="5" style="1" customWidth="1"/>
+    <col min="106" max="106" width="5.6640625" style="1" customWidth="1"/>
+    <col min="107" max="107" width="16.77734375" style="1" customWidth="1"/>
+    <col min="108" max="109" width="6.109375" style="1" customWidth="1"/>
+    <col min="110" max="110" width="5.33203125" style="1" customWidth="1"/>
+    <col min="111" max="111" width="5.44140625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="10.88671875" style="1" customWidth="1"/>
+    <col min="113" max="113" width="10.21875" style="1" customWidth="1"/>
+    <col min="114" max="114" width="10.44140625" style="1" customWidth="1"/>
+    <col min="115" max="115" width="87" style="1" customWidth="1"/>
+    <col min="116" max="117" width="27.109375" style="1" customWidth="1"/>
+    <col min="118" max="118" width="9.109375" style="1" customWidth="1"/>
+    <col min="119" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:118" ht="13.8" customHeight="1">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:119" ht="13.8" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="57" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45" t="s">
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45" t="s">
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45" t="s">
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45"/>
-      <c r="BO2" s="45" t="s">
+      <c r="BQ2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BP2" s="45" t="s">
+      <c r="BR2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BQ2" s="45" t="s">
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="45"/>
-      <c r="BW2" s="45"/>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
-      <c r="BZ2" s="45"/>
-      <c r="CA2" s="45" t="s">
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45"/>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="45"/>
-      <c r="CI2" s="45"/>
-      <c r="CJ2" s="45" t="s">
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="45"/>
-      <c r="CM2" s="51" t="s">
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
+      <c r="CU2" s="14"/>
+      <c r="CV2" s="14"/>
+      <c r="CW2" s="14"/>
+      <c r="CX2" s="14"/>
+      <c r="CY2" s="14"/>
+      <c r="CZ2" s="14"/>
+      <c r="DA2" s="14"/>
+      <c r="DB2" s="14"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="10"/>
+      <c r="DF2" s="10"/>
+      <c r="DG2" s="10"/>
+      <c r="DH2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI2" s="25"/>
+      <c r="DJ2" s="25"/>
+      <c r="DK2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="CN2" s="9"/>
-      <c r="CO2" s="9"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9"/>
-      <c r="CR2" s="9"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9"/>
-      <c r="CU2" s="9"/>
-      <c r="CV2" s="9"/>
-      <c r="CW2" s="9"/>
-      <c r="CX2" s="9"/>
-      <c r="CY2" s="9"/>
-      <c r="CZ2" s="9"/>
-      <c r="DA2" s="9"/>
-      <c r="DB2" s="52"/>
-      <c r="DC2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD2" s="45"/>
-      <c r="DE2" s="45"/>
-      <c r="DF2" s="45"/>
-      <c r="DG2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="DH2" s="46"/>
-      <c r="DI2" s="46"/>
-      <c r="DJ2" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK2" s="49" t="s">
+      <c r="DM2" s="28"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="3"/>
+    </row>
+    <row r="3" spans="1:119">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="17"/>
+      <c r="CP3" s="17"/>
+      <c r="CQ3" s="17"/>
+      <c r="CR3" s="17"/>
+      <c r="CS3" s="17"/>
+      <c r="CT3" s="17"/>
+      <c r="CU3" s="17"/>
+      <c r="CV3" s="17"/>
+      <c r="CW3" s="17"/>
+      <c r="CX3" s="17"/>
+      <c r="CY3" s="17"/>
+      <c r="CZ3" s="17"/>
+      <c r="DA3" s="17"/>
+      <c r="DB3" s="17"/>
+      <c r="DC3" s="18"/>
+      <c r="DD3" s="10"/>
+      <c r="DE3" s="10"/>
+      <c r="DF3" s="10"/>
+      <c r="DG3" s="10"/>
+      <c r="DH3" s="25"/>
+      <c r="DI3" s="25"/>
+      <c r="DJ3" s="25"/>
+      <c r="DK3" s="26"/>
+      <c r="DL3" s="28"/>
+      <c r="DM3" s="28"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="3"/>
+    </row>
+    <row r="4" spans="1:119">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="DL2" s="49"/>
-      <c r="DM2" s="4"/>
-      <c r="DN2" s="3"/>
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="CH4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK4" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="CN4" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="CO4" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="CP4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR4" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="CS4" s="50"/>
+      <c r="CT4" s="50"/>
+      <c r="CU4" s="50"/>
+      <c r="CV4" s="50"/>
+      <c r="CW4" s="50"/>
+      <c r="CX4" s="50"/>
+      <c r="CY4" s="50"/>
+      <c r="CZ4" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="DA4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="DB4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="DC4" s="46"/>
+      <c r="DD4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="DE4" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="DF4" s="47"/>
+      <c r="DG4" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="DH4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="DI4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ4" s="11"/>
+      <c r="DK4" s="26"/>
+      <c r="DL4" s="28"/>
+      <c r="DM4" s="28"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="3"/>
     </row>
-    <row r="3" spans="1:118">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
-      <c r="CE3" s="45"/>
-      <c r="CF3" s="45"/>
-      <c r="CG3" s="45"/>
-      <c r="CH3" s="45"/>
-      <c r="CI3" s="45"/>
-      <c r="CJ3" s="45"/>
-      <c r="CK3" s="45"/>
-      <c r="CL3" s="45"/>
-      <c r="CM3" s="53"/>
-      <c r="CN3" s="54"/>
-      <c r="CO3" s="54"/>
-      <c r="CP3" s="54"/>
-      <c r="CQ3" s="54"/>
-      <c r="CR3" s="54"/>
-      <c r="CS3" s="54"/>
-      <c r="CT3" s="54"/>
-      <c r="CU3" s="54"/>
-      <c r="CV3" s="54"/>
-      <c r="CW3" s="54"/>
-      <c r="CX3" s="54"/>
-      <c r="CY3" s="54"/>
-      <c r="CZ3" s="54"/>
-      <c r="DA3" s="54"/>
-      <c r="DB3" s="55"/>
-      <c r="DC3" s="45"/>
-      <c r="DD3" s="45"/>
-      <c r="DE3" s="45"/>
-      <c r="DF3" s="45"/>
-      <c r="DG3" s="46"/>
-      <c r="DH3" s="46"/>
-      <c r="DI3" s="46"/>
-      <c r="DJ3" s="47"/>
-      <c r="DK3" s="49"/>
-      <c r="DL3" s="49"/>
-      <c r="DM3" s="4"/>
-      <c r="DN3" s="3"/>
+    <row r="5" spans="1:119">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="11"/>
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="11"/>
+      <c r="BV5" s="11"/>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="11"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="20"/>
+      <c r="CA5" s="20"/>
+      <c r="CB5" s="40"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="53"/>
+      <c r="CL5" s="35"/>
+      <c r="CM5" s="35"/>
+      <c r="CN5" s="44"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="46"/>
+      <c r="CQ5" s="48"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="51"/>
+      <c r="DA5" s="51"/>
+      <c r="DB5" s="46"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="55"/>
+      <c r="DE5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="DF5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG5" s="55"/>
+      <c r="DH5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="DI5" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="DJ5" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="DK5" s="26"/>
+      <c r="DL5" s="28"/>
+      <c r="DM5" s="28"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="3"/>
     </row>
-    <row r="4" spans="1:118">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK4" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="45"/>
-      <c r="BQ4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="BW4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="BZ4" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="CB4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="CC4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="CD4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="CH4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="CI4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="CJ4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="CK4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="CL4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="CM4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="CN4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="CO4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="CP4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR4" s="25"/>
-      <c r="CS4" s="25"/>
-      <c r="CT4" s="25"/>
-      <c r="CU4" s="25"/>
-      <c r="CV4" s="25"/>
-      <c r="CW4" s="25"/>
-      <c r="CX4" s="25"/>
-      <c r="CY4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="CZ4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="DA4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="DB4" s="14"/>
-      <c r="DC4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="DD4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="DE4" s="17"/>
-      <c r="DF4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="DG4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="DH4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="DI4" s="18"/>
-      <c r="DJ4" s="47"/>
-      <c r="DK4" s="49"/>
-      <c r="DL4" s="49"/>
-      <c r="DM4" s="4"/>
-      <c r="DN4" s="3"/>
+    <row r="6" spans="1:119" ht="109.8">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="36"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="41"/>
+      <c r="CC6" s="43"/>
+      <c r="CD6" s="43"/>
+      <c r="CE6" s="43"/>
+      <c r="CF6" s="43"/>
+      <c r="CG6" s="43"/>
+      <c r="CH6" s="43"/>
+      <c r="CI6" s="43"/>
+      <c r="CJ6" s="43"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="36"/>
+      <c r="CM6" s="36"/>
+      <c r="CN6" s="45"/>
+      <c r="CO6" s="47"/>
+      <c r="CP6" s="47"/>
+      <c r="CQ6" s="49"/>
+      <c r="CR6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CS6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CT6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CU6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CV6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="CW6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CX6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="CY6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CZ6" s="52"/>
+      <c r="DA6" s="52"/>
+      <c r="DB6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DC6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="DD6" s="56"/>
+      <c r="DE6" s="58"/>
+      <c r="DF6" s="58"/>
+      <c r="DG6" s="56"/>
+      <c r="DH6" s="47"/>
+      <c r="DI6" s="47"/>
+      <c r="DJ6" s="47"/>
+      <c r="DK6" s="27"/>
+      <c r="DL6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="3"/>
     </row>
-    <row r="5" spans="1:118">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="18"/>
-      <c r="BD5" s="18"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="18"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="18"/>
-      <c r="BI5" s="18"/>
-      <c r="BJ5" s="35"/>
-      <c r="BK5" s="35"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="40"/>
-      <c r="BR5" s="18"/>
-      <c r="BS5" s="18"/>
-      <c r="BT5" s="18"/>
-      <c r="BU5" s="18"/>
-      <c r="BV5" s="18"/>
-      <c r="BW5" s="18"/>
-      <c r="BX5" s="18"/>
-      <c r="BY5" s="35"/>
-      <c r="BZ5" s="35"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="26"/>
-      <c r="CC5" s="26"/>
-      <c r="CD5" s="26"/>
-      <c r="CE5" s="26"/>
-      <c r="CF5" s="26"/>
-      <c r="CG5" s="26"/>
-      <c r="CH5" s="26"/>
-      <c r="CI5" s="26"/>
-      <c r="CJ5" s="28"/>
-      <c r="CK5" s="30"/>
-      <c r="CL5" s="30"/>
-      <c r="CM5" s="21"/>
-      <c r="CN5" s="14"/>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="25"/>
-      <c r="CR5" s="25"/>
-      <c r="CS5" s="25"/>
-      <c r="CT5" s="25"/>
-      <c r="CU5" s="25"/>
-      <c r="CV5" s="25"/>
-      <c r="CW5" s="25"/>
-      <c r="CX5" s="25"/>
-      <c r="CY5" s="12"/>
-      <c r="CZ5" s="12"/>
-      <c r="DA5" s="14"/>
-      <c r="DB5" s="14"/>
-      <c r="DC5" s="15"/>
-      <c r="DD5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="DE5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="DF5" s="15"/>
-      <c r="DG5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="DH5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="DI5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="DJ5" s="47"/>
-      <c r="DK5" s="49"/>
-      <c r="DL5" s="49"/>
-      <c r="DM5" s="4"/>
-      <c r="DN5" s="3"/>
-    </row>
-    <row r="6" spans="1:118" ht="109.8">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="34"/>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="39"/>
-      <c r="BN6" s="39"/>
-      <c r="BO6" s="50"/>
-      <c r="BP6" s="50"/>
-      <c r="BQ6" s="41"/>
-      <c r="BR6" s="34"/>
-      <c r="BS6" s="34"/>
-      <c r="BT6" s="34"/>
-      <c r="BU6" s="34"/>
-      <c r="BV6" s="34"/>
-      <c r="BW6" s="34"/>
-      <c r="BX6" s="34"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="33"/>
-      <c r="CB6" s="27"/>
-      <c r="CC6" s="27"/>
-      <c r="CD6" s="27"/>
-      <c r="CE6" s="27"/>
-      <c r="CF6" s="27"/>
-      <c r="CG6" s="27"/>
-      <c r="CH6" s="27"/>
-      <c r="CI6" s="27"/>
-      <c r="CJ6" s="29"/>
-      <c r="CK6" s="31"/>
-      <c r="CL6" s="31"/>
-      <c r="CM6" s="22"/>
-      <c r="CN6" s="17"/>
-      <c r="CO6" s="17"/>
-      <c r="CP6" s="24"/>
-      <c r="CQ6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="CR6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="CS6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="CT6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="CU6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="CV6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="CW6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="CX6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="CY6" s="13"/>
-      <c r="CZ6" s="13"/>
-      <c r="DA6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="DB6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="DC6" s="16"/>
-      <c r="DD6" s="20"/>
-      <c r="DE6" s="20"/>
-      <c r="DF6" s="16"/>
-      <c r="DG6" s="17"/>
-      <c r="DH6" s="17"/>
-      <c r="DI6" s="17"/>
-      <c r="DJ6" s="48"/>
-      <c r="DK6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="DL6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="DM6" s="4"/>
-      <c r="DN6" s="3"/>
-    </row>
-    <row r="7" spans="1:118">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:119">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="61"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="9">
         <f>D7+1</f>
         <v>2</v>
       </c>
-      <c r="F7" s="56">
-        <f t="shared" ref="F7:BQ7" si="0">E7+1</f>
+      <c r="F7" s="9">
+        <f>E7+1</f>
         <v>3</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:BR7" si="0">F7+1</f>
         <v>4</v>
       </c>
       <c r="H7" s="8">
@@ -2734,11 +2801,11 @@
         <v>66</v>
       </c>
       <c r="BR7" s="8">
-        <f t="shared" ref="BR7:DL7" si="1">BQ7+1</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="BS7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="BS7:DM7" si="1">BR7+1</f>
         <v>68</v>
       </c>
       <c r="BT7" s="8">
@@ -2920,152 +2987,157 @@
       <c r="DL7" s="8">
         <f t="shared" si="1"/>
         <v>113</v>
+      </c>
+      <c r="DM7" s="8">
+        <f t="shared" si="1"/>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="141">
-    <mergeCell ref="D2:M3"/>
-    <mergeCell ref="N2:AG3"/>
-    <mergeCell ref="AH2:BA3"/>
-    <mergeCell ref="BB2:BK3"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="CM2:DB3"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="DC2:DF3"/>
-    <mergeCell ref="DG2:DI3"/>
-    <mergeCell ref="DJ2:DJ6"/>
-    <mergeCell ref="DK2:DL5"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="BL2:BN3"/>
-    <mergeCell ref="BO2:BO6"/>
-    <mergeCell ref="BP2:BP6"/>
-    <mergeCell ref="BQ2:BZ3"/>
-    <mergeCell ref="CA2:CI3"/>
-    <mergeCell ref="CJ2:CL3"/>
-    <mergeCell ref="BQ4:BQ6"/>
-    <mergeCell ref="BR4:BR6"/>
-    <mergeCell ref="BS4:BS6"/>
-    <mergeCell ref="BT4:BT6"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="BH4:BH6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
+  <mergeCells count="142">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="E2:N3"/>
+    <mergeCell ref="O2:AH3"/>
+    <mergeCell ref="AI2:BB3"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="DA4:DA6"/>
+    <mergeCell ref="DB4:DC5"/>
+    <mergeCell ref="DD4:DD6"/>
+    <mergeCell ref="DE4:DF4"/>
+    <mergeCell ref="DG4:DG6"/>
+    <mergeCell ref="DI4:DJ4"/>
+    <mergeCell ref="DE5:DE6"/>
+    <mergeCell ref="DF5:DF6"/>
+    <mergeCell ref="DH5:DH6"/>
+    <mergeCell ref="DI5:DI6"/>
+    <mergeCell ref="DJ5:DJ6"/>
+    <mergeCell ref="CN4:CN6"/>
+    <mergeCell ref="CO4:CO6"/>
+    <mergeCell ref="CP4:CP6"/>
+    <mergeCell ref="CQ4:CQ6"/>
+    <mergeCell ref="CR4:CY5"/>
+    <mergeCell ref="CZ4:CZ6"/>
+    <mergeCell ref="CH4:CH6"/>
+    <mergeCell ref="CI4:CI6"/>
+    <mergeCell ref="CJ4:CJ6"/>
+    <mergeCell ref="CK4:CK6"/>
+    <mergeCell ref="CL4:CL6"/>
+    <mergeCell ref="CM4:CM6"/>
+    <mergeCell ref="CB4:CB6"/>
+    <mergeCell ref="CC4:CC6"/>
+    <mergeCell ref="CD4:CD6"/>
+    <mergeCell ref="CE4:CE6"/>
+    <mergeCell ref="CF4:CF6"/>
+    <mergeCell ref="CG4:CG6"/>
+    <mergeCell ref="BV4:BV6"/>
+    <mergeCell ref="BW4:BW6"/>
+    <mergeCell ref="BX4:BX6"/>
+    <mergeCell ref="BY4:BY6"/>
+    <mergeCell ref="BZ4:BZ6"/>
+    <mergeCell ref="CA4:CA6"/>
     <mergeCell ref="BJ4:BJ6"/>
     <mergeCell ref="BK4:BK6"/>
     <mergeCell ref="BL4:BL6"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BM4:BM6"/>
+    <mergeCell ref="BN4:BO4"/>
     <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BB4:BB6"/>
+    <mergeCell ref="BO5:BO6"/>
     <mergeCell ref="BC4:BC6"/>
     <mergeCell ref="BD4:BD6"/>
     <mergeCell ref="BE4:BE6"/>
     <mergeCell ref="BF4:BF6"/>
     <mergeCell ref="BG4:BG6"/>
-    <mergeCell ref="CA4:CA6"/>
-    <mergeCell ref="CB4:CB6"/>
-    <mergeCell ref="CC4:CC6"/>
-    <mergeCell ref="CD4:CD6"/>
-    <mergeCell ref="CE4:CE6"/>
-    <mergeCell ref="CF4:CF6"/>
-    <mergeCell ref="BU4:BU6"/>
-    <mergeCell ref="BV4:BV6"/>
-    <mergeCell ref="BW4:BW6"/>
-    <mergeCell ref="BX4:BX6"/>
-    <mergeCell ref="BY4:BY6"/>
-    <mergeCell ref="BZ4:BZ6"/>
-    <mergeCell ref="CM4:CM6"/>
-    <mergeCell ref="CN4:CN6"/>
-    <mergeCell ref="CO4:CO6"/>
-    <mergeCell ref="CP4:CP6"/>
-    <mergeCell ref="CQ4:CX5"/>
-    <mergeCell ref="CY4:CY6"/>
-    <mergeCell ref="CG4:CG6"/>
-    <mergeCell ref="CH4:CH6"/>
-    <mergeCell ref="CI4:CI6"/>
-    <mergeCell ref="CJ4:CJ6"/>
-    <mergeCell ref="CK4:CK6"/>
-    <mergeCell ref="CL4:CL6"/>
-    <mergeCell ref="CZ4:CZ6"/>
-    <mergeCell ref="DA4:DB5"/>
-    <mergeCell ref="DC4:DC6"/>
-    <mergeCell ref="DD4:DE4"/>
-    <mergeCell ref="DF4:DF6"/>
-    <mergeCell ref="DH4:DI4"/>
-    <mergeCell ref="DD5:DD6"/>
-    <mergeCell ref="DE5:DE6"/>
-    <mergeCell ref="DG5:DG6"/>
-    <mergeCell ref="DH5:DH6"/>
-    <mergeCell ref="DI5:DI6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="BH4:BH6"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
     <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="DD2:DG3"/>
+    <mergeCell ref="DH2:DJ3"/>
+    <mergeCell ref="DK2:DK6"/>
+    <mergeCell ref="DL2:DM5"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="BM2:BO3"/>
+    <mergeCell ref="BP2:BP6"/>
+    <mergeCell ref="BQ2:BQ6"/>
+    <mergeCell ref="BR2:CA3"/>
+    <mergeCell ref="CB2:CJ3"/>
+    <mergeCell ref="CK2:CM3"/>
+    <mergeCell ref="BR4:BR6"/>
+    <mergeCell ref="BS4:BS6"/>
+    <mergeCell ref="BT4:BT6"/>
+    <mergeCell ref="BU4:BU6"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="BC2:BL3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="CN2:DC3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AY5:AY6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
